--- a/config_6.8/shoping_config.xlsx
+++ b/config_6.8/shoping_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="533" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="533" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tge|标签配置" sheetId="6" r:id="rId1"/>
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5182" uniqueCount="1841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5224" uniqueCount="1841">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6731,8 +6731,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -6780,6 +6780,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -6787,8 +6816,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6803,16 +6863,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6827,69 +6904,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6897,21 +6912,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -7033,25 +7033,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7069,7 +7051,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7087,19 +7111,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7111,25 +7153,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7141,13 +7165,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7159,25 +7177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7217,15 +7217,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7257,21 +7248,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -7288,9 +7264,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7306,11 +7284,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7325,7 +7325,7 @@
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7334,97 +7334,97 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7433,10 +7433,10 @@
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -7445,22 +7445,22 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -13651,14 +13651,14 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AN654"/>
+  <dimension ref="A1:AN661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H641" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A649" sqref="$A649:$XFD654"/>
+      <selection pane="bottomRight" activeCell="H669" sqref="H669"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -54477,8 +54477,8 @@
       <c r="B635" s="34">
         <v>10551</v>
       </c>
-      <c r="F635" s="34">
-        <v>1</v>
+      <c r="F635" s="21">
+        <v>0</v>
       </c>
       <c r="G635" s="34" t="s">
         <v>1616</v>
@@ -54545,8 +54545,8 @@
       <c r="B636" s="34">
         <v>10552</v>
       </c>
-      <c r="F636" s="34">
-        <v>1</v>
+      <c r="F636" s="21">
+        <v>0</v>
       </c>
       <c r="G636" s="34" t="s">
         <v>1616</v>
@@ -54613,8 +54613,8 @@
       <c r="B637" s="34">
         <v>10553</v>
       </c>
-      <c r="F637" s="34">
-        <v>1</v>
+      <c r="F637" s="21">
+        <v>0</v>
       </c>
       <c r="G637" s="34" t="s">
         <v>1616</v>
@@ -54681,8 +54681,8 @@
       <c r="B638" s="34">
         <v>10554</v>
       </c>
-      <c r="F638" s="34">
-        <v>1</v>
+      <c r="F638" s="21">
+        <v>0</v>
       </c>
       <c r="G638" s="34" t="s">
         <v>1616</v>
@@ -54749,8 +54749,8 @@
       <c r="B639" s="34">
         <v>10555</v>
       </c>
-      <c r="F639" s="34">
-        <v>1</v>
+      <c r="F639" s="21">
+        <v>0</v>
       </c>
       <c r="G639" s="34" t="s">
         <v>1616</v>
@@ -54817,8 +54817,8 @@
       <c r="B640" s="34">
         <v>10556</v>
       </c>
-      <c r="F640" s="34">
-        <v>1</v>
+      <c r="F640" s="21">
+        <v>0</v>
       </c>
       <c r="G640" s="34" t="s">
         <v>1616</v>
@@ -54885,8 +54885,8 @@
       <c r="B641" s="34">
         <v>10557</v>
       </c>
-      <c r="F641" s="34">
-        <v>1</v>
+      <c r="F641" s="21">
+        <v>0</v>
       </c>
       <c r="G641" s="34" t="s">
         <v>1616</v>
@@ -54953,8 +54953,8 @@
       <c r="B642" s="34">
         <v>10558</v>
       </c>
-      <c r="F642" s="34">
-        <v>1</v>
+      <c r="F642" s="21">
+        <v>0</v>
       </c>
       <c r="G642" s="34" t="s">
         <v>1616</v>
@@ -55021,8 +55021,8 @@
       <c r="B643" s="34">
         <v>10559</v>
       </c>
-      <c r="F643" s="34">
-        <v>1</v>
+      <c r="F643" s="21">
+        <v>0</v>
       </c>
       <c r="G643" s="34" t="s">
         <v>1616</v>
@@ -55089,8 +55089,8 @@
       <c r="B644" s="34">
         <v>10560</v>
       </c>
-      <c r="F644" s="34">
-        <v>1</v>
+      <c r="F644" s="21">
+        <v>0</v>
       </c>
       <c r="G644" s="34" t="s">
         <v>1616</v>
@@ -55157,8 +55157,8 @@
       <c r="B645" s="34">
         <v>10561</v>
       </c>
-      <c r="F645" s="34">
-        <v>1</v>
+      <c r="F645" s="21">
+        <v>0</v>
       </c>
       <c r="G645" s="34" t="s">
         <v>1616</v>
@@ -55225,8 +55225,8 @@
       <c r="B646" s="34">
         <v>10562</v>
       </c>
-      <c r="F646" s="34">
-        <v>1</v>
+      <c r="F646" s="21">
+        <v>0</v>
       </c>
       <c r="G646" s="34" t="s">
         <v>1616</v>
@@ -55418,7 +55418,7 @@
         <v>10565</v>
       </c>
       <c r="F649" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G649" s="34" t="s">
         <v>1386</v>
@@ -55480,7 +55480,7 @@
         <v>10566</v>
       </c>
       <c r="F650" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G650" s="34" t="s">
         <v>1386</v>
@@ -55542,7 +55542,7 @@
         <v>10567</v>
       </c>
       <c r="F651" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G651" s="34" t="s">
         <v>1386</v>
@@ -55604,7 +55604,7 @@
         <v>10568</v>
       </c>
       <c r="F652" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G652" s="34" t="s">
         <v>1386</v>
@@ -55666,7 +55666,7 @@
         <v>10569</v>
       </c>
       <c r="F653" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G653" s="34" t="s">
         <v>1386</v>
@@ -55728,7 +55728,7 @@
         <v>10570</v>
       </c>
       <c r="F654" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G654" s="34" t="s">
         <v>1386</v>
@@ -55779,6 +55779,440 @@
         <v>1</v>
       </c>
       <c r="AM654" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="655" spans="1:39">
+      <c r="A655" s="21">
+        <v>654</v>
+      </c>
+      <c r="B655" s="34">
+        <v>10571</v>
+      </c>
+      <c r="F655" s="34">
+        <v>1</v>
+      </c>
+      <c r="G655" s="34" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J655" s="34" t="s">
+        <v>1606</v>
+      </c>
+      <c r="L655" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M655" s="33">
+        <v>0</v>
+      </c>
+      <c r="N655" s="33">
+        <v>0</v>
+      </c>
+      <c r="O655" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P655" s="34">
+        <v>99800</v>
+      </c>
+      <c r="Q655" s="34" t="s">
+        <v>1607</v>
+      </c>
+      <c r="R655" s="35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W655" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X655" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y655" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z655" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH655" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI655" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL655" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM655" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="656" spans="1:39">
+      <c r="A656" s="21">
+        <v>655</v>
+      </c>
+      <c r="B656" s="34">
+        <v>10572</v>
+      </c>
+      <c r="F656" s="34">
+        <v>1</v>
+      </c>
+      <c r="G656" s="34" t="s">
+        <v>1116</v>
+      </c>
+      <c r="J656" s="34" t="s">
+        <v>1608</v>
+      </c>
+      <c r="L656" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M656" s="33">
+        <v>0</v>
+      </c>
+      <c r="N656" s="33">
+        <v>0</v>
+      </c>
+      <c r="O656" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P656" s="34">
+        <v>49800</v>
+      </c>
+      <c r="Q656" s="34" t="s">
+        <v>1607</v>
+      </c>
+      <c r="R656" s="35" t="s">
+        <v>1132</v>
+      </c>
+      <c r="W656" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X656" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y656" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z656" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH656" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI656" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL656" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM656" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="657" spans="1:39">
+      <c r="A657" s="21">
+        <v>656</v>
+      </c>
+      <c r="B657" s="34">
+        <v>10573</v>
+      </c>
+      <c r="F657" s="34">
+        <v>1</v>
+      </c>
+      <c r="G657" s="34" t="s">
+        <v>1119</v>
+      </c>
+      <c r="J657" s="34" t="s">
+        <v>1609</v>
+      </c>
+      <c r="L657" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M657" s="33">
+        <v>0</v>
+      </c>
+      <c r="N657" s="33">
+        <v>0</v>
+      </c>
+      <c r="O657" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P657" s="34">
+        <v>29800</v>
+      </c>
+      <c r="Q657" s="34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="R657" s="35" t="s">
+        <v>1128</v>
+      </c>
+      <c r="W657" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X657" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y657" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z657" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH657" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI657" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL657" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM657" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="658" spans="1:39">
+      <c r="A658" s="21">
+        <v>657</v>
+      </c>
+      <c r="B658" s="34">
+        <v>10574</v>
+      </c>
+      <c r="F658" s="34">
+        <v>1</v>
+      </c>
+      <c r="G658" s="34" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J658" s="34" t="s">
+        <v>1611</v>
+      </c>
+      <c r="L658" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M658" s="33">
+        <v>0</v>
+      </c>
+      <c r="N658" s="33">
+        <v>0</v>
+      </c>
+      <c r="O658" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P658" s="34">
+        <v>19800</v>
+      </c>
+      <c r="Q658" s="34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="R658" s="35" t="s">
+        <v>1125</v>
+      </c>
+      <c r="W658" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X658" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y658" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z658" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH658" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI658" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL658" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM658" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:39">
+      <c r="A659" s="21">
+        <v>658</v>
+      </c>
+      <c r="B659" s="34">
+        <v>10575</v>
+      </c>
+      <c r="F659" s="34">
+        <v>1</v>
+      </c>
+      <c r="G659" s="34" t="s">
+        <v>1126</v>
+      </c>
+      <c r="J659" s="34" t="s">
+        <v>1612</v>
+      </c>
+      <c r="L659" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M659" s="33">
+        <v>0</v>
+      </c>
+      <c r="N659" s="33">
+        <v>0</v>
+      </c>
+      <c r="O659" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P659" s="34">
+        <v>9800</v>
+      </c>
+      <c r="Q659" s="34" t="s">
+        <v>1610</v>
+      </c>
+      <c r="R659" s="35" t="s">
+        <v>1122</v>
+      </c>
+      <c r="W659" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X659" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y659" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z659" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH659" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI659" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL659" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM659" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:39">
+      <c r="A660" s="21">
+        <v>659</v>
+      </c>
+      <c r="B660" s="34">
+        <v>10576</v>
+      </c>
+      <c r="F660" s="34">
+        <v>1</v>
+      </c>
+      <c r="G660" s="34" t="s">
+        <v>1129</v>
+      </c>
+      <c r="J660" s="34" t="s">
+        <v>1613</v>
+      </c>
+      <c r="L660" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M660" s="33">
+        <v>0</v>
+      </c>
+      <c r="N660" s="33">
+        <v>0</v>
+      </c>
+      <c r="O660" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P660" s="34">
+        <v>4800</v>
+      </c>
+      <c r="Q660" s="34" t="s">
+        <v>1614</v>
+      </c>
+      <c r="R660" s="35" t="s">
+        <v>1118</v>
+      </c>
+      <c r="W660" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X660" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y660" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z660" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH660" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI660" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL660" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM660" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="661" spans="1:39">
+      <c r="A661" s="21">
+        <v>660</v>
+      </c>
+      <c r="B661" s="34">
+        <v>10577</v>
+      </c>
+      <c r="F661" s="34">
+        <v>1</v>
+      </c>
+      <c r="G661" s="34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J661" s="34" t="s">
+        <v>1615</v>
+      </c>
+      <c r="L661" s="33">
+        <v>-31</v>
+      </c>
+      <c r="M661" s="33">
+        <v>0</v>
+      </c>
+      <c r="N661" s="33">
+        <v>0</v>
+      </c>
+      <c r="O661" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="P661" s="34">
+        <v>1800</v>
+      </c>
+      <c r="Q661" s="34" t="s">
+        <v>1614</v>
+      </c>
+      <c r="R661" s="35" t="s">
+        <v>1115</v>
+      </c>
+      <c r="W661" s="33" t="s">
+        <v>478</v>
+      </c>
+      <c r="X661" s="33">
+        <v>99999999</v>
+      </c>
+      <c r="Y661" s="34">
+        <v>1623110400</v>
+      </c>
+      <c r="Z661" s="34">
+        <v>1623686399</v>
+      </c>
+      <c r="AH661" s="34">
+        <v>1</v>
+      </c>
+      <c r="AI661" s="34">
+        <v>1</v>
+      </c>
+      <c r="AL661" s="34">
+        <v>1</v>
+      </c>
+      <c r="AM661" s="34">
         <v>1</v>
       </c>
     </row>
